--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -58,10 +58,10 @@
     <t>Desc</t>
   </si>
   <si>
-    <t>P1</t>
-  </si>
-  <si>
-    <t>P2</t>
+    <t>MaxHP</t>
+  </si>
+  <si>
+    <t>Attack</t>
   </si>
   <si>
     <t>P3</t>
@@ -441,15 +441,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -470,6 +485,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -478,15 +508,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -500,34 +530,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -547,16 +554,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -572,21 +586,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,7 +601,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,103 +739,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,37 +763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,19 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,22 +795,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -818,17 +813,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,21 +843,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -883,6 +854,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +890,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,145 +909,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -64,7 +64,7 @@
     <t>Attack</t>
   </si>
   <si>
-    <t>P3</t>
+    <t>MonsterType</t>
   </si>
   <si>
     <t>P4</t>
@@ -441,23 +441,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,6 +477,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -500,13 +523,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -514,27 +531,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -554,13 +554,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -569,14 +562,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -584,9 +585,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,43 +601,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,25 +679,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -691,25 +751,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,66 +785,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -792,6 +792,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -806,15 +826,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -858,6 +869,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -875,32 +901,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,16 +921,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,115 +939,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1535,7 +1535,7 @@
         <v>80</v>
       </c>
       <c r="Q2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R2">
         <v>5</v>
@@ -1606,7 +1606,7 @@
         <v>80</v>
       </c>
       <c r="Q3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>5</v>
@@ -1677,7 +1677,7 @@
         <v>80</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R4">
         <v>5</v>
@@ -1748,7 +1748,7 @@
         <v>80</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R5">
         <v>5</v>
@@ -1819,7 +1819,7 @@
         <v>56</v>
       </c>
       <c r="Q6">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="R6">
         <v>5</v>
@@ -1890,7 +1890,7 @@
         <v>58</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="R7">
         <v>5</v>
@@ -1961,7 +1961,7 @@
         <v>60</v>
       </c>
       <c r="Q8">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="R8">
         <v>5</v>
@@ -2032,7 +2032,7 @@
         <v>62</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>5</v>
@@ -2103,7 +2103,7 @@
         <v>64</v>
       </c>
       <c r="Q10">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <v>5</v>
@@ -2174,7 +2174,7 @@
         <v>66</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <v>5</v>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -67,22 +67,22 @@
     <t>MonsterType</t>
   </si>
   <si>
-    <t>P4</t>
-  </si>
-  <si>
-    <t>P5</t>
-  </si>
-  <si>
-    <t>P6</t>
-  </si>
-  <si>
-    <t>P7</t>
-  </si>
-  <si>
-    <t>P8</t>
-  </si>
-  <si>
-    <t>P9</t>
+    <t>ViewLength</t>
+  </si>
+  <si>
+    <t>StartAngle</t>
+  </si>
+  <si>
+    <t>EndAngle</t>
+  </si>
+  <si>
+    <t>WaitPatrolTime</t>
+  </si>
+  <si>
+    <t>ViewAngle</t>
+  </si>
+  <si>
+    <t>Temp</t>
   </si>
   <si>
     <t>P10</t>
@@ -443,8 +443,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -457,6 +457,36 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -477,24 +507,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -509,30 +538,32 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -546,47 +577,16 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,19 +601,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,13 +631,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,55 +655,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,13 +691,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -733,43 +751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +769,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,22 +795,44 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="thick">
         <color theme="4"/>
-      </top>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -830,15 +852,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -850,21 +863,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -887,17 +885,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,133 +921,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1403,8 +1403,8 @@
   <sheetPr/>
   <dimension ref="A1:X26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2:V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1412,6 +1412,7 @@
     <col min="11" max="11" width="16.375" customWidth="1"/>
     <col min="12" max="12" width="30.5" customWidth="1"/>
     <col min="13" max="13" width="24.75" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
@@ -1538,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S2">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W2">
         <v>0</v>
@@ -1609,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S3">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W3">
         <v>0</v>
@@ -1680,19 +1681,19 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S4">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -1751,19 +1752,19 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S5">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W5">
         <v>0</v>
@@ -1822,19 +1823,19 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S6">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W6">
         <v>0</v>
@@ -1893,19 +1894,19 @@
         <v>2</v>
       </c>
       <c r="R7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S7">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -1964,19 +1965,19 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S8">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W8">
         <v>0</v>
@@ -2035,19 +2036,19 @@
         <v>2</v>
       </c>
       <c r="R9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S9">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -2106,19 +2107,19 @@
         <v>3</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S10">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -2177,19 +2178,19 @@
         <v>2</v>
       </c>
       <c r="R11">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W11">
         <v>0</v>
@@ -2245,22 +2246,22 @@
         <v>68</v>
       </c>
       <c r="Q12">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="R12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S12">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2316,22 +2317,22 @@
         <v>70</v>
       </c>
       <c r="Q13">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="R13">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S13">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W13">
         <v>0</v>
@@ -2387,22 +2388,22 @@
         <v>72</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="R14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S14">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W14">
         <v>0</v>
@@ -2458,22 +2459,22 @@
         <v>74</v>
       </c>
       <c r="Q15">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="S15">
-        <v>50</v>
+        <v>-10</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W15">
         <v>0</v>
@@ -2529,22 +2530,22 @@
         <v>100</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W16">
         <v>0</v>
@@ -2600,22 +2601,22 @@
         <v>100</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W17">
         <v>0</v>
@@ -2671,22 +2672,22 @@
         <v>100</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W18">
         <v>0</v>
@@ -2742,22 +2743,22 @@
         <v>100</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2813,22 +2814,22 @@
         <v>100</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W20">
         <v>0</v>
@@ -2884,22 +2885,22 @@
         <v>100</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W21">
         <v>0</v>
@@ -2955,22 +2956,22 @@
         <v>100</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W22">
         <v>0</v>
@@ -3026,22 +3027,22 @@
         <v>100</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3097,22 +3098,22 @@
         <v>100</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T24">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W24">
         <v>0</v>
@@ -3168,22 +3169,22 @@
         <v>100</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W25">
         <v>0</v>
@@ -3239,22 +3240,22 @@
         <v>100</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W26">
         <v>0</v>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -441,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -455,38 +455,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -515,41 +486,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -561,9 +502,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -577,6 +548,28 @@
       <scheme val="major"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -584,9 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,25 +601,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,31 +649,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -673,7 +667,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -685,13 +697,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,7 +715,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,73 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,48 +792,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -852,17 +810,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -885,8 +837,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +868,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,10 +909,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,16 +921,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -939,115 +939,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,11 +1108,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1395,16 +1390,17 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2:V26"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1530,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="O2">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P2">
         <v>80</v>
@@ -1601,7 +1597,7 @@
         <v>31</v>
       </c>
       <c r="O3">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P3">
         <v>80</v>
@@ -1672,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="O4">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P4">
         <v>80</v>
@@ -1743,7 +1739,7 @@
         <v>39</v>
       </c>
       <c r="O5">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="P5">
         <v>80</v>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -441,10 +441,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -455,9 +455,77 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -478,6 +546,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -488,71 +572,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -564,29 +586,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,37 +601,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -649,7 +631,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -661,37 +745,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -703,85 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,54 +792,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -860,11 +812,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -872,8 +822,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -901,6 +866,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,145 +909,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1108,6 +1108,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1390,17 +1395,16 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1529,7 +1533,7 @@
         <v>100</v>
       </c>
       <c r="P2">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -1813,7 +1817,7 @@
         <v>585</v>
       </c>
       <c r="P6">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="Q6">
         <v>1</v>
@@ -1884,7 +1888,7 @@
         <v>590</v>
       </c>
       <c r="P7">
-        <v>58</v>
+        <v>80</v>
       </c>
       <c r="Q7">
         <v>2</v>
@@ -1955,7 +1959,7 @@
         <v>595</v>
       </c>
       <c r="P8">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Q8">
         <v>1</v>
@@ -2026,7 +2030,7 @@
         <v>600</v>
       </c>
       <c r="P9">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2097,7 +2101,7 @@
         <v>605</v>
       </c>
       <c r="P10">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2168,7 +2172,7 @@
         <v>610</v>
       </c>
       <c r="P11">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="Q11">
         <v>2</v>
@@ -2239,7 +2243,7 @@
         <v>615</v>
       </c>
       <c r="P12">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="Q12">
         <v>2</v>
@@ -2310,7 +2314,7 @@
         <v>620</v>
       </c>
       <c r="P13">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="Q13">
         <v>2</v>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -441,9 +441,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
@@ -470,9 +470,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -485,16 +484,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -508,6 +506,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -517,15 +530,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="major"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,19 +561,11 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <scheme val="major"/>
     </font>
     <font>
       <i/>
@@ -578,15 +584,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,7 +601,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -613,7 +613,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,133 +655,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -769,7 +679,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -781,7 +775,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -795,50 +795,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,6 +828,60 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -886,21 +901,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -909,145 +909,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1404,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1542,7 +1542,7 @@
         <v>10</v>
       </c>
       <c r="S2">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T2">
         <v>-80</v>
@@ -1613,7 +1613,7 @@
         <v>10</v>
       </c>
       <c r="S3">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T3">
         <v>-80</v>
@@ -1684,7 +1684,7 @@
         <v>10</v>
       </c>
       <c r="S4">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T4">
         <v>-80</v>
@@ -1755,7 +1755,7 @@
         <v>10</v>
       </c>
       <c r="S5">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T5">
         <v>-80</v>
@@ -1823,10 +1823,10 @@
         <v>1</v>
       </c>
       <c r="R6">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S6">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T6">
         <v>-80</v>
@@ -1894,10 +1894,10 @@
         <v>2</v>
       </c>
       <c r="R7">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S7">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T7">
         <v>-80</v>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S8">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T8">
         <v>-80</v>
@@ -2036,10 +2036,10 @@
         <v>2</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S9">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T9">
         <v>-80</v>
@@ -2107,10 +2107,10 @@
         <v>3</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S10">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T10">
         <v>-80</v>
@@ -2178,10 +2178,10 @@
         <v>2</v>
       </c>
       <c r="R11">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S11">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T11">
         <v>-80</v>
@@ -2249,10 +2249,10 @@
         <v>2</v>
       </c>
       <c r="R12">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S12">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T12">
         <v>-80</v>
@@ -2320,10 +2320,10 @@
         <v>2</v>
       </c>
       <c r="R13">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S13">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T13">
         <v>-80</v>
@@ -2391,10 +2391,10 @@
         <v>2</v>
       </c>
       <c r="R14">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S14">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T14">
         <v>-80</v>
@@ -2462,10 +2462,10 @@
         <v>2</v>
       </c>
       <c r="R15">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S15">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T15">
         <v>-80</v>
@@ -2533,10 +2533,10 @@
         <v>2</v>
       </c>
       <c r="R16">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S16">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T16">
         <v>-80</v>
@@ -2604,10 +2604,10 @@
         <v>2</v>
       </c>
       <c r="R17">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S17">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T17">
         <v>-80</v>
@@ -2675,10 +2675,10 @@
         <v>2</v>
       </c>
       <c r="R18">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S18">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T18">
         <v>-80</v>
@@ -2746,10 +2746,10 @@
         <v>2</v>
       </c>
       <c r="R19">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S19">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T19">
         <v>-80</v>
@@ -2817,10 +2817,10 @@
         <v>2</v>
       </c>
       <c r="R20">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S20">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T20">
         <v>-80</v>
@@ -2888,10 +2888,10 @@
         <v>2</v>
       </c>
       <c r="R21">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S21">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T21">
         <v>-80</v>
@@ -2959,10 +2959,10 @@
         <v>2</v>
       </c>
       <c r="R22">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S22">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T22">
         <v>-80</v>
@@ -3030,10 +3030,10 @@
         <v>2</v>
       </c>
       <c r="R23">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S23">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T23">
         <v>-80</v>
@@ -3101,10 +3101,10 @@
         <v>2</v>
       </c>
       <c r="R24">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S24">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T24">
         <v>-80</v>
@@ -3172,10 +3172,10 @@
         <v>2</v>
       </c>
       <c r="R25">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S25">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T25">
         <v>-80</v>
@@ -3243,10 +3243,10 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="S26">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="T26">
         <v>-80</v>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133">
   <si>
     <t>Id</t>
   </si>
@@ -97,7 +97,7 @@
     <t>Text/AI/1</t>
   </si>
   <si>
-    <t>剑士，这里是最强的存在，曾经打遍天下无敌手</t>
+    <t>玩家</t>
   </si>
   <si>
     <t>法师</t>
@@ -109,9 +109,6 @@
     <t>Text/AI/2</t>
   </si>
   <si>
-    <t>法师，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
     <t>刺客</t>
   </si>
   <si>
@@ -121,9 +118,6 @@
     <t>Text/AI/3</t>
   </si>
   <si>
-    <t>刺客，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
     <t>锤王</t>
   </si>
   <si>
@@ -133,9 +127,6 @@
     <t>Text/AI/4</t>
   </si>
   <si>
-    <t>锤王，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
     <t>吸血老妖</t>
   </si>
   <si>
@@ -145,7 +136,7 @@
     <t>Text/AI/90001</t>
   </si>
   <si>
-    <t>吸血老妖，这里是最强的存在，曾经打遍天下无敌手</t>
+    <t>狙击手</t>
   </si>
   <si>
     <t>天鹅仙子</t>
@@ -157,7 +148,7 @@
     <t>Text/AI/90002</t>
   </si>
   <si>
-    <t>天鹅仙子，这里是最强的存在，曾经打遍天下无敌手</t>
+    <t>巡逻人员</t>
   </si>
   <si>
     <t>无形之影</t>
@@ -169,7 +160,7 @@
     <t>Text/AI/90003</t>
   </si>
   <si>
-    <t>无形之影，这里是最强的存在，曾经打遍天下无敌手</t>
+    <t>群众</t>
   </si>
   <si>
     <t>刀锋之影</t>
@@ -181,9 +172,6 @@
     <t>Text/AI/90004</t>
   </si>
   <si>
-    <t>刀锋之影，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
     <t>圣光领主</t>
   </si>
   <si>
@@ -193,9 +181,6 @@
     <t>Text/AI/90005</t>
   </si>
   <si>
-    <t>圣光领主，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
     <t>猫女加瓦</t>
   </si>
   <si>
@@ -208,9 +193,6 @@
     <t>Text/AI/90006</t>
   </si>
   <si>
-    <t>猫女加瓦，这里是最强的存在，曾经打遍天下无敌手</t>
-  </si>
-  <si>
     <t>猫女怒瓦</t>
   </si>
   <si>
@@ -221,9 +203,6 @@
   </si>
   <si>
     <t>Text/AI/90007</t>
-  </si>
-  <si>
-    <t>猫女怒瓦，这里是最强的存在，曾经打遍天下无敌手</t>
   </si>
   <si>
     <t>小萝莉</t>
@@ -441,8 +420,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -456,7 +435,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -471,67 +464,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -545,16 +486,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -566,6 +515,22 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -585,8 +550,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -601,13 +580,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -619,13 +604,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -637,79 +682,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -727,19 +706,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +724,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -763,25 +760,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -804,6 +783,32 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -815,15 +820,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,21 +863,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -893,11 +874,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -909,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -921,133 +900,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1404,7 +1383,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1539,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S2">
         <v>-8</v>
@@ -1598,7 +1577,7 @@
         <v>30</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -1610,7 +1589,7 @@
         <v>0</v>
       </c>
       <c r="R3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S3">
         <v>-8</v>
@@ -1636,7 +1615,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1660,16 +1639,16 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>32</v>
+      </c>
+      <c r="L4" t="s">
+        <v>32</v>
+      </c>
+      <c r="M4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>34</v>
-      </c>
       <c r="N4" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="O4">
         <v>100</v>
@@ -1681,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="R4">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S4">
         <v>-8</v>
@@ -1707,7 +1686,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1731,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="O5">
         <v>100</v>
@@ -1752,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R5">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S5">
         <v>-8</v>
@@ -1778,7 +1757,7 @@
         <v>90001</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1802,16 +1781,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="M6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="N6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="O6">
         <v>585</v>
@@ -1820,13 +1799,13 @@
         <v>80</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R6">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S6">
-        <v>-8</v>
+        <v>-20</v>
       </c>
       <c r="T6">
         <v>-80</v>
@@ -1849,7 +1828,7 @@
         <v>90002</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1873,16 +1852,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="L7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="M7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="N7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="O7">
         <v>590</v>
@@ -1894,7 +1873,7 @@
         <v>2</v>
       </c>
       <c r="R7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S7">
         <v>-8</v>
@@ -1920,7 +1899,7 @@
         <v>90003</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1944,16 +1923,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="L8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="O8">
         <v>595</v>
@@ -1965,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="R8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S8">
         <v>-8</v>
@@ -1991,7 +1970,7 @@
         <v>90004</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2015,16 +1994,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="M9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="N9" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="O9">
         <v>600</v>
@@ -2036,7 +2015,7 @@
         <v>2</v>
       </c>
       <c r="R9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S9">
         <v>-8</v>
@@ -2062,7 +2041,7 @@
         <v>90005</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -2086,16 +2065,16 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="M10" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="N10" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="O10">
         <v>605</v>
@@ -2104,10 +2083,10 @@
         <v>80</v>
       </c>
       <c r="Q10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R10">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S10">
         <v>-8</v>
@@ -2133,7 +2112,7 @@
         <v>90006</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -2157,16 +2136,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="N11" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="O11">
         <v>610</v>
@@ -2175,10 +2154,10 @@
         <v>80</v>
       </c>
       <c r="Q11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S11">
         <v>-8</v>
@@ -2204,7 +2183,7 @@
         <v>90007</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2228,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="L12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="M12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="O12">
         <v>615</v>
@@ -2246,10 +2225,10 @@
         <v>80</v>
       </c>
       <c r="Q12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S12">
         <v>-8</v>
@@ -2275,7 +2254,7 @@
         <v>90008</v>
       </c>
       <c r="B13" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2299,16 +2278,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L13" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="M13" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="N13" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="O13">
         <v>620</v>
@@ -2320,7 +2299,7 @@
         <v>2</v>
       </c>
       <c r="R13">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S13">
         <v>-8</v>
@@ -2346,7 +2325,7 @@
         <v>90009</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -2370,16 +2349,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="L14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="M14" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="N14" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="O14">
         <v>625</v>
@@ -2391,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="R14">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S14">
         <v>-8</v>
@@ -2417,7 +2396,7 @@
         <v>90010</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -2441,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L15" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="M15" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="O15">
         <v>630</v>
@@ -2462,7 +2441,7 @@
         <v>2</v>
       </c>
       <c r="R15">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S15">
         <v>-8</v>
@@ -2488,7 +2467,7 @@
         <v>100001</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2512,16 +2491,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="L16" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="N16" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="O16">
         <v>1000</v>
@@ -2533,7 +2512,7 @@
         <v>2</v>
       </c>
       <c r="R16">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S16">
         <v>-8</v>
@@ -2559,7 +2538,7 @@
         <v>100002</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2583,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="L17" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="M17" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="O17">
         <v>1000</v>
@@ -2604,7 +2583,7 @@
         <v>2</v>
       </c>
       <c r="R17">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S17">
         <v>-8</v>
@@ -2630,7 +2609,7 @@
         <v>100003</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2654,16 +2633,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="L18" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="M18" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N18" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="O18">
         <v>1000</v>
@@ -2675,7 +2654,7 @@
         <v>2</v>
       </c>
       <c r="R18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S18">
         <v>-8</v>
@@ -2701,7 +2680,7 @@
         <v>100004</v>
       </c>
       <c r="B19" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2725,16 +2704,16 @@
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L19" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M19" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="N19" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O19">
         <v>1000</v>
@@ -2746,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="R19">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S19">
         <v>-8</v>
@@ -2772,7 +2751,7 @@
         <v>100005</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -2796,16 +2775,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L20" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M20" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="N20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="O20">
         <v>1000</v>
@@ -2817,7 +2796,7 @@
         <v>2</v>
       </c>
       <c r="R20">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S20">
         <v>-8</v>
@@ -2843,7 +2822,7 @@
         <v>100006</v>
       </c>
       <c r="B21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -2867,16 +2846,16 @@
         <v>0</v>
       </c>
       <c r="K21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="M21" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="N21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="O21">
         <v>1000</v>
@@ -2888,7 +2867,7 @@
         <v>2</v>
       </c>
       <c r="R21">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S21">
         <v>-8</v>
@@ -2914,7 +2893,7 @@
         <v>100007</v>
       </c>
       <c r="B22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -2938,16 +2917,16 @@
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="M22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="N22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="O22">
         <v>1000</v>
@@ -2959,7 +2938,7 @@
         <v>2</v>
       </c>
       <c r="R22">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S22">
         <v>-8</v>
@@ -2985,7 +2964,7 @@
         <v>100008</v>
       </c>
       <c r="B23" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3009,16 +2988,16 @@
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="L23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="N23" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="O23">
         <v>1000</v>
@@ -3030,7 +3009,7 @@
         <v>2</v>
       </c>
       <c r="R23">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S23">
         <v>-8</v>
@@ -3056,7 +3035,7 @@
         <v>100009</v>
       </c>
       <c r="B24" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -3080,16 +3059,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="L24" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="M24" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="N24" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="O24">
         <v>1000</v>
@@ -3101,7 +3080,7 @@
         <v>2</v>
       </c>
       <c r="R24">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S24">
         <v>-8</v>
@@ -3127,7 +3106,7 @@
         <v>100010</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3151,16 +3130,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="N25" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="O25">
         <v>1000</v>
@@ -3172,7 +3151,7 @@
         <v>2</v>
       </c>
       <c r="R25">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S25">
         <v>-8</v>
@@ -3198,7 +3177,7 @@
         <v>100011</v>
       </c>
       <c r="B26" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3222,16 +3201,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="L26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="M26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="N26" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="O26">
         <v>1000</v>
@@ -3243,7 +3222,7 @@
         <v>2</v>
       </c>
       <c r="R26">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="S26">
         <v>-8</v>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -421,35 +421,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -464,7 +443,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -473,14 +474,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -501,20 +494,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <u/>
@@ -533,6 +517,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -542,8 +548,8 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -557,15 +563,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -580,7 +580,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,73 +652,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,7 +670,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,7 +700,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,31 +736,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -754,13 +754,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -771,41 +771,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -824,6 +789,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -835,15 +820,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,7 +843,7 @@
       <right/>
       <top/>
       <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,8 +851,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,133 +900,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1509,7 +1509,7 @@
         <v>27</v>
       </c>
       <c r="O2">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="P2">
         <v>800</v>
@@ -1580,7 +1580,7 @@
         <v>27</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>1000000</v>
       </c>
       <c r="P3">
         <v>80</v>

--- a/Assets/Project/xlsx/Entiny.xlsx
+++ b/Assets/Project/xlsx/Entiny.xlsx
@@ -420,10 +420,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -434,9 +434,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -444,14 +452,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -465,22 +465,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -494,38 +508,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -547,6 +532,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -556,16 +557,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -580,139 +580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -730,7 +604,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -742,25 +742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,19 +792,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,35 +813,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -875,8 +840,43 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.399975585192419"/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -888,10 +888,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -900,133 +900,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1383,7 +1383,7 @@
   <dimension ref="A1:X26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="U2" sqref="U2:U26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1527,7 +1527,7 @@
         <v>-80</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V2">
         <v>45</v>
@@ -1598,7 +1598,7 @@
         <v>-80</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V3">
         <v>45</v>
@@ -1669,7 +1669,7 @@
         <v>-80</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V4">
         <v>45</v>
@@ -1740,7 +1740,7 @@
         <v>-80</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <v>45</v>
@@ -1811,7 +1811,7 @@
         <v>-80</v>
       </c>
       <c r="U6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V6">
         <v>45</v>
@@ -1882,7 +1882,7 @@
         <v>-80</v>
       </c>
       <c r="U7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V7">
         <v>45</v>
@@ -1953,7 +1953,7 @@
         <v>-80</v>
       </c>
       <c r="U8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V8">
         <v>45</v>
@@ -2024,7 +2024,7 @@
         <v>-80</v>
       </c>
       <c r="U9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V9">
         <v>45</v>
@@ -2095,7 +2095,7 @@
         <v>-80</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V10">
         <v>45</v>
@@ -2166,7 +2166,7 @@
         <v>-80</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V11">
         <v>45</v>
@@ -2237,7 +2237,7 @@
         <v>-80</v>
       </c>
       <c r="U12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V12">
         <v>45</v>
@@ -2308,7 +2308,7 @@
         <v>-80</v>
       </c>
       <c r="U13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V13">
         <v>45</v>
@@ -2379,7 +2379,7 @@
         <v>-80</v>
       </c>
       <c r="U14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V14">
         <v>45</v>
@@ -2450,7 +2450,7 @@
         <v>-80</v>
       </c>
       <c r="U15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V15">
         <v>45</v>
@@ -2521,7 +2521,7 @@
         <v>-80</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V16">
         <v>45</v>
@@ -2592,7 +2592,7 @@
         <v>-80</v>
       </c>
       <c r="U17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V17">
         <v>45</v>
@@ -2663,7 +2663,7 @@
         <v>-80</v>
       </c>
       <c r="U18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V18">
         <v>45</v>
@@ -2734,7 +2734,7 @@
         <v>-80</v>
       </c>
       <c r="U19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V19">
         <v>45</v>
@@ -2805,7 +2805,7 @@
         <v>-80</v>
       </c>
       <c r="U20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V20">
         <v>45</v>
@@ -2876,7 +2876,7 @@
         <v>-80</v>
       </c>
       <c r="U21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V21">
         <v>45</v>
@@ -2947,7 +2947,7 @@
         <v>-80</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22">
         <v>45</v>
@@ -3018,7 +3018,7 @@
         <v>-80</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V23">
         <v>45</v>
@@ -3089,7 +3089,7 @@
         <v>-80</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V24">
         <v>45</v>
@@ -3160,7 +3160,7 @@
         <v>-80</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V25">
         <v>45</v>
@@ -3231,7 +3231,7 @@
         <v>-80</v>
       </c>
       <c r="U26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26">
         <v>45</v>
